--- a/biology/Médecine/Échelle_de_Bristol/Échelle_de_Bristol.xlsx
+++ b/biology/Médecine/Échelle_de_Bristol/Échelle_de_Bristol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Bristol</t>
+          <t>Échelle_de_Bristol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle de Bristol (en anglais : Bristol Stool Scale) est une échelle visuelle répartissant les selles humaines en sept types[1],[2]. Elle a été développée à l'université de Bristol et a été initialement publiée en 1997 dans le Scandinavian Journal of Gastroenterology[1]. Cette échelle est corrélée avec la mesure du temps de transit colique par les marqueurs radio-opaques[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de Bristol (en anglais : Bristol Stool Scale) est une échelle visuelle répartissant les selles humaines en sept types,. Elle a été développée à l'université de Bristol et a été initialement publiée en 1997 dans le Scandinavian Journal of Gastroenterology. Cette échelle est corrélée avec la mesure du temps de transit colique par les marqueurs radio-opaques.
 La forme des selles dépend du temps qu'elles ont passé dans le côlon.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Bristol</t>
+          <t>Échelle_de_Bristol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description des différents types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Type 1 : Petites crottes dures et détachées, ressemblant à des noisettes (scybales[4]). Difficiles à évacuer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Type 1 : Petites crottes dures et détachées, ressemblant à des noisettes (scybales). Difficiles à évacuer.
 Type 2 : En forme de saucisse, mais dures et grumeleuses.
 Type 3 : Comme une saucisse, mais avec des craquelures sur la surface.
 Type 4 : Ressemble à une saucisse ou un serpent, lisse et douce.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Bristol</t>
+          <t>Échelle_de_Bristol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Interprétation des résultats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les types 1 et 2 indiquent une constipation.
 Les types 3 et 4 sont les selles idéales.
